--- a/PMP/ITTO整理.xlsx
+++ b/PMP/ITTO整理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\other\PMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\FINAL_REPORT\PMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9555" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="整合" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="品質" sheetId="14" r:id="rId5"/>
     <sheet name="資源" sheetId="13" r:id="rId6"/>
     <sheet name="溝通" sheetId="10" r:id="rId7"/>
-    <sheet name="採購" sheetId="5" r:id="rId8"/>
-    <sheet name="利害關係人" sheetId="12" r:id="rId9"/>
+    <sheet name="風險" sheetId="15" r:id="rId8"/>
+    <sheet name="採購" sheetId="5" r:id="rId9"/>
+    <sheet name="利害關係人" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="378">
   <si>
     <t>整合管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2403,6 +2404,341 @@
       </rPr>
       <t>(檢查工作成果與規格是否相符，有未達成品質的要改善)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組織過程資產更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案文件更新-
+風險登錄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作績效報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案管理計劃書
+更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作績效資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>變更申請</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案文件-
+A.風險登錄表
+B.議題紀錄
+C.風險報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作績效資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料分析-
+技術性能分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案管理計劃書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>監控-監視風險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案管理資訊系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組織過程資產</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案文件更新-
+風險登錄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人際關係與
+團隊技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案文件-
+A.風險登錄表
+B.風險報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>變更申請</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專家判斷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行-實施風險回應</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>決策制定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案整體風險
+回應策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>應變回應策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機會回應策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威脅回應策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企業環境因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案管理計劃書
+更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料蒐集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案文件-
+A.風險登錄表
+B.專案團隊分派
+C.資源行事曆
+D.風險報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案管理計劃書-
+A.資源管理計劃書
+B.成本基準</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規劃-規劃風險回應</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料分析-
+A.模擬
+B.敏感性分析
+C.決策樹分析
+D.影響圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不確定性的
+呈現方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人際關係與
+團隊技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案文件-
+A.風險登錄表
+B.成本估算
+C.時程估算
+D.風險報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案管理計劃書-
+三大基準</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規劃-進行定量風險分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料呈現</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風險分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料分析-
+A.風險資料品質
+評量
+B.風險機率與
+衝擊評量
+C.其他風險參數
+評量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案文件-
+風險登錄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專家判斷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案管理計劃書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規劃-進行定性風險分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示清單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>採購相關文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案文件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料分析-
+A.假設與限制分析
+B.SWOT分析
+C.文件分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風險報告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料蒐集-
+檢核表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案文件
+A.議題紀錄
+B.利害關係人
+登錄表
+C.成本估算
+D.期程估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風險登錄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案管理計劃書
+A.時程管理計劃書
+B.成本管理計劃書
+C.品質管理計劃書
+D.三大基準
+E.資源管理計劃書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規劃-辨識風險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料分析-
+利害關係人分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案文件-
+利害關係人登錄表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會議</t>
+  </si>
+  <si>
+    <t>風險管理計劃書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規劃-規劃風險管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風險管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2519,7 +2855,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2553,6 +2889,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2665,7 +3007,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2714,10 +3056,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2750,6 +3140,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2768,34 +3164,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2804,50 +3173,59 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3131,52 +3509,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:D49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="18.625" style="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="18.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:9" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="22.2" x14ac:dyDescent="0.3">
       <c r="B2" s="14"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -3188,7 +3566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3202,7 +3580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -3216,7 +3594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -3228,7 +3606,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -3240,15 +3618,15 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>1</v>
@@ -3260,7 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -3274,7 +3652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -3286,7 +3664,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -3298,7 +3676,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -3310,15 +3688,15 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>1</v>
@@ -3330,7 +3708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -3344,7 +3722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -3358,7 +3736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -3372,7 +3750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -3384,7 +3762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>5</v>
       </c>
@@ -3396,7 +3774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>6</v>
       </c>
@@ -3406,7 +3784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>7</v>
       </c>
@@ -3416,21 +3794,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>1</v>
@@ -3442,7 +3820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -3456,7 +3834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>2</v>
       </c>
@@ -3470,7 +3848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>3</v>
       </c>
@@ -3484,7 +3862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>4</v>
       </c>
@@ -3496,7 +3874,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -3506,21 +3884,21 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="8"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>1</v>
@@ -3532,7 +3910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>1</v>
       </c>
@@ -3546,7 +3924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -3560,7 +3938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>3</v>
       </c>
@@ -3574,7 +3952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>4</v>
       </c>
@@ -3588,7 +3966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>5</v>
       </c>
@@ -3598,7 +3976,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>6</v>
       </c>
@@ -3608,15 +3986,15 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>1</v>
@@ -3628,7 +4006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>1</v>
       </c>
@@ -3642,7 +4020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>2</v>
       </c>
@@ -3656,7 +4034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>3</v>
       </c>
@@ -3670,7 +4048,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>4</v>
       </c>
@@ -3682,7 +4060,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>5</v>
       </c>
@@ -3694,7 +4072,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>6</v>
       </c>
@@ -3704,15 +4082,15 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>1</v>
@@ -3724,7 +4102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>1</v>
       </c>
@@ -3738,7 +4116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>2</v>
       </c>
@@ -3752,7 +4130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>3</v>
       </c>
@@ -3766,7 +4144,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>4</v>
       </c>
@@ -3778,7 +4156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>5</v>
       </c>
@@ -3788,7 +4166,7 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>6</v>
       </c>
@@ -3798,7 +4176,7 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>7</v>
       </c>
@@ -3808,7 +4186,7 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>8</v>
       </c>
@@ -3820,18 +4198,656 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" style="2" customWidth="1"/>
+    <col min="7" max="10" width="18.6640625" style="17"/>
+    <col min="11" max="16384" width="18.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F2" s="6"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="6"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13" s="6"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F22" s="6"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F23" s="6"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>3</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>6</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B24:D24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3843,38 +4859,38 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1"/>
-    <col min="4" max="4" width="21.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="18.625" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1"/>
+    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="18.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:9" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -3886,7 +4902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3900,7 +4916,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -3914,7 +4930,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -3926,7 +4942,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -3936,21 +4952,21 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>1</v>
@@ -3962,7 +4978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -3976,7 +4992,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -3990,7 +5006,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -4002,7 +5018,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -4014,7 +5030,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -4026,7 +5042,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>6</v>
       </c>
@@ -4042,7 +5058,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>7</v>
       </c>
@@ -4058,7 +5074,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -4072,7 +5088,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4082,7 +5098,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -4092,28 +5108,28 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>1</v>
@@ -4125,7 +5141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -4139,7 +5155,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -4153,7 +5169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -4165,7 +5181,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>4</v>
       </c>
@@ -4178,7 +5194,7 @@
       <c r="D32" s="5"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>5</v>
       </c>
@@ -4191,30 +5207,30 @@
       <c r="D33" s="3"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>1</v>
@@ -4227,7 +5243,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -4242,7 +5258,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -4257,7 +5273,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>3</v>
       </c>
@@ -4268,7 +5284,7 @@
       <c r="D40" s="3"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>4</v>
       </c>
@@ -4279,21 +5295,21 @@
       <c r="D41" s="3"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>1</v>
@@ -4305,7 +5321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>1</v>
       </c>
@@ -4319,7 +5335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>2</v>
       </c>
@@ -4333,7 +5349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>3</v>
       </c>
@@ -4345,7 +5361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>4</v>
       </c>
@@ -4359,27 +5375,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="47"/>
+      <c r="D52" s="48"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>1</v>
@@ -4391,7 +5407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -4405,7 +5421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -4417,7 +5433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -4429,7 +5445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>4</v>
       </c>
@@ -4441,7 +5457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -4449,13 +5465,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4471,40 +5487,40 @@
       <selection activeCell="A39" sqref="A39:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="2" customWidth="1"/>
-    <col min="7" max="8" width="18.625" style="1"/>
-    <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="18.625" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" style="1"/>
+    <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="18.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:9" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -4516,7 +5532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -4530,7 +5546,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -4542,7 +5558,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -4554,7 +5570,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -4564,15 +5580,15 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>1</v>
@@ -4584,7 +5600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -4598,7 +5614,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -4612,7 +5628,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -4626,7 +5642,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -4637,7 +5653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -4647,18 +5663,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>1</v>
@@ -4670,7 +5686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -4684,7 +5700,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -4698,7 +5714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -4710,7 +5726,7 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -4722,21 +5738,21 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+    </row>
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>1</v>
@@ -4748,7 +5764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -4762,7 +5778,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -4776,7 +5792,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -4790,7 +5806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>4</v>
       </c>
@@ -4802,7 +5818,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>5</v>
       </c>
@@ -4812,7 +5828,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>6</v>
       </c>
@@ -4823,7 +5839,7 @@
       <c r="D34" s="3"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>7</v>
       </c>
@@ -4834,7 +5850,7 @@
       <c r="D35" s="3"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>8</v>
       </c>
@@ -4844,33 +5860,33 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>1</v>
@@ -4882,7 +5898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>1</v>
       </c>
@@ -4896,7 +5912,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>2</v>
       </c>
@@ -4910,7 +5926,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>3</v>
       </c>
@@ -4924,7 +5940,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>4</v>
       </c>
@@ -4938,7 +5954,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -4952,7 +5968,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>6</v>
       </c>
@@ -4964,7 +5980,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>7</v>
       </c>
@@ -4976,7 +5992,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>8</v>
       </c>
@@ -4986,18 +6002,18 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="47"/>
+      <c r="D52" s="48"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>1</v>
@@ -5009,7 +6025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -5023,7 +6039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -5037,7 +6053,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -5051,7 +6067,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>4</v>
       </c>
@@ -5065,7 +6081,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>5</v>
       </c>
@@ -5077,7 +6093,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>6</v>
       </c>
@@ -5114,31 +6130,31 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="4" width="18.625" style="1"/>
-    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="18.625" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="18.6640625" style="1"/>
+    <col min="5" max="5" width="6.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="18.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -5150,7 +6166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -5164,7 +6180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -5176,7 +6192,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -5188,7 +6204,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -5198,15 +6214,15 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>1</v>
@@ -5218,7 +6234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -5232,7 +6248,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -5246,7 +6262,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -5260,7 +6276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -5272,7 +6288,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -5282,7 +6298,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>6</v>
       </c>
@@ -5292,7 +6308,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>7</v>
       </c>
@@ -5302,7 +6318,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>8</v>
       </c>
@@ -5312,21 +6328,21 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>1</v>
@@ -5338,7 +6354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -5352,7 +6368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -5366,7 +6382,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -5380,7 +6396,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>4</v>
       </c>
@@ -5392,7 +6408,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -5404,7 +6420,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>6</v>
       </c>
@@ -5416,15 +6432,15 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>1</v>
@@ -5436,7 +6452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -5450,7 +6466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>2</v>
       </c>
@@ -5464,7 +6480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>3</v>
       </c>
@@ -5478,7 +6494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>4</v>
       </c>
@@ -5492,7 +6508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>5</v>
       </c>
@@ -5525,377 +6541,377 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="47" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="23" style="47" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="47" customWidth="1"/>
-    <col min="6" max="16384" width="18.625" style="47"/>
+    <col min="1" max="1" width="3.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="23" style="24" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="18.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-    </row>
-    <row r="4" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+    </row>
+    <row r="4" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="26" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+    <row r="6" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="27" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+    <row r="7" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+    <row r="8" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+    <row r="9" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="D9" s="50"/>
-    </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="50"/>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
         <v>7</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="50"/>
-    </row>
-    <row r="14" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="53" t="s">
+      <c r="D11" s="26"/>
+    </row>
+    <row r="14" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+    <row r="16" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
         <v>1</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="27" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
+    <row r="17" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
         <v>2</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="27" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
         <v>3</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+    <row r="19" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
         <v>4</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
         <v>5</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
         <v>6</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="D21" s="50"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25">
         <v>7</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D22" s="50"/>
-    </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25">
         <v>8</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="D23" s="50"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-    </row>
-    <row r="26" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="60" t="s">
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-    </row>
-    <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+    </row>
+    <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
+    <row r="28" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25">
         <v>1</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="26" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48">
+    <row r="29" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25">
         <v>2</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48">
+    <row r="30" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25">
         <v>3</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48">
+    <row r="31" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25">
         <v>4</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48">
+    <row r="32" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25">
         <v>5</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48">
+    <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25">
         <v>6</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48">
+    <row r="34" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25">
         <v>7</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5918,679 +6934,679 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="47" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="47" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="47" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="43" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="47" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="47"/>
-    <col min="9" max="9" width="20.625" style="47" customWidth="1"/>
-    <col min="10" max="16384" width="18.625" style="47"/>
+    <col min="1" max="1" width="3.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="24"/>
+    <col min="9" max="9" width="20.6640625" style="24" customWidth="1"/>
+    <col min="10" max="16384" width="18.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-    </row>
-    <row r="4" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+    </row>
+    <row r="4" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+    <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="26" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+    <row r="6" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="27" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+    <row r="7" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="50"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
         <v>4</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-    </row>
-    <row r="13" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="13" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
+    <row r="15" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
         <v>1</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="27" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+    <row r="16" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
         <v>2</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
+    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
         <v>3</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="27" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
         <v>4</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+    <row r="19" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
         <v>5</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="D19" s="50"/>
-    </row>
-    <row r="20" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
         <v>6</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="50"/>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
         <v>7</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="50"/>
-    </row>
-    <row r="22" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="52"/>
-    </row>
-    <row r="23" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="52"/>
-    </row>
-    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="53" t="s">
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+    </row>
+    <row r="23" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="28"/>
+    </row>
+    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="56" t="s">
         <v>267</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48">
+    <row r="27" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25">
         <v>1</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="27" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
+    <row r="28" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25">
         <v>2</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="26" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="48">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="25">
         <v>3</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="27" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48">
+    <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25">
         <v>4</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48">
+    <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25">
         <v>5</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48">
+    <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25">
         <v>6</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48">
+    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25">
         <v>7</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48">
+    <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25">
         <v>8</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-    </row>
-    <row r="37" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="59" t="s">
+    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33"/>
+      <c r="B37" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48" t="s">
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+    </row>
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48">
+    <row r="39" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25">
         <v>1</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="27" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48">
+    <row r="40" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25">
         <v>2</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48">
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25">
         <v>3</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48">
+    <row r="42" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25">
         <v>4</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48">
+    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25">
         <v>5</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50" t="s">
+      <c r="B43" s="26"/>
+      <c r="C43" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="26" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48">
+    <row r="44" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="25">
         <v>6</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50" t="s">
+      <c r="B44" s="26"/>
+      <c r="C44" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="47"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="48">
+      <c r="F44" s="24"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="25">
         <v>7</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="D45" s="50"/>
-      <c r="F45" s="47"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="48">
+      <c r="D45" s="26"/>
+      <c r="F45" s="24"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="25">
         <v>8</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="50"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="57"/>
-    </row>
-    <row r="49" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="53" t="s">
+      <c r="D46" s="26"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="31"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="32"/>
+    </row>
+    <row r="49" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48" t="s">
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="48">
+    <row r="51" spans="1:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="25">
         <v>1</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="47" t="s">
+      <c r="G51" s="24" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="48">
+    <row r="52" spans="1:7" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="25">
         <v>2</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="26" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="48">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="25">
         <v>3</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50" t="s">
+      <c r="C53" s="26"/>
+      <c r="D53" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="48">
+    <row r="54" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="25">
         <v>4</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="26" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48">
+    <row r="55" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="25">
         <v>5</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="50"/>
-      <c r="D55" s="51"/>
-    </row>
-    <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="48">
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
+    </row>
+    <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="25">
         <v>6</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-    </row>
-    <row r="59" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="24" t="s">
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="B59" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="48" t="s">
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="48" t="s">
+      <c r="C60" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="48">
+    <row r="61" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="25">
         <v>1</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="48">
+    <row r="62" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="25">
         <v>2</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="48">
+    <row r="63" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="25">
         <v>3</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="50" t="s">
+      <c r="C63" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="48">
+    <row r="64" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="25">
         <v>4</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D64" s="50" t="s">
+      <c r="D64" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="48">
+    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="25">
         <v>5</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6619,33 +7635,33 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="18.625" style="1"/>
+    <col min="5" max="5" width="6.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="18.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -6657,7 +7673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -6671,7 +7687,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -6685,7 +7701,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -6699,7 +7715,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -6711,7 +7727,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -6723,7 +7739,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -6733,7 +7749,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -6743,7 +7759,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -6753,15 +7769,15 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>1</v>
@@ -6773,7 +7789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -6787,7 +7803,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -6801,7 +7817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -6815,7 +7831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -6829,7 +7845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -6841,7 +7857,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -6851,7 +7867,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -6861,21 +7877,21 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="26" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>1</v>
@@ -6887,7 +7903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -6901,7 +7917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -6915,7 +7931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -6929,7 +7945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>4</v>
       </c>
@@ -6943,7 +7959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>5</v>
       </c>
@@ -6970,6 +7986,776 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" style="61" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="71"/>
+      <c r="B1" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="63"/>
+      <c r="B3" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="63">
+        <v>1</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="63">
+        <v>2</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="63">
+        <v>3</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" s="62"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="63">
+        <v>4</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="63">
+        <v>5</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="63"/>
+      <c r="B12" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="63">
+        <v>1</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="63">
+        <v>2</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63">
+        <v>3</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="63">
+        <v>4</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" s="62"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="63">
+        <v>5</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="63">
+        <v>6</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="69"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="69"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="69"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="69"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="69"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="63"/>
+      <c r="B27" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="63"/>
+      <c r="B28" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="63">
+        <v>1</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="63">
+        <v>2</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" s="62"/>
+    </row>
+    <row r="31" spans="1:4" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="63">
+        <v>3</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="D31" s="62"/>
+    </row>
+    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="63">
+        <v>4</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" s="62"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="63">
+        <v>5</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="D33" s="62"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="63">
+        <v>6</v>
+      </c>
+      <c r="B34" s="62"/>
+      <c r="C34" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="D34" s="62"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="63"/>
+      <c r="B37" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="63"/>
+      <c r="B38" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="63">
+        <v>1</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="63">
+        <v>2</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="D40" s="62"/>
+    </row>
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="63">
+        <v>3</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D41" s="62"/>
+    </row>
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="63">
+        <v>4</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="D42" s="62"/>
+    </row>
+    <row r="43" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="63">
+        <v>5</v>
+      </c>
+      <c r="B43" s="62"/>
+      <c r="C43" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D43" s="62"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="63"/>
+      <c r="B50" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="63"/>
+      <c r="B51" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="C51" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="D51" s="63" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="63">
+        <v>1</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="C52" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63">
+        <v>2</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="63">
+        <v>3</v>
+      </c>
+      <c r="B54" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="63">
+        <v>4</v>
+      </c>
+      <c r="B55" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="D55" s="62"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="63">
+        <v>5</v>
+      </c>
+      <c r="B56" s="62"/>
+      <c r="C56" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D56" s="62"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="63">
+        <v>6</v>
+      </c>
+      <c r="B57" s="62"/>
+      <c r="C57" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="D57" s="62"/>
+    </row>
+    <row r="58" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="63">
+        <v>7</v>
+      </c>
+      <c r="B58" s="62"/>
+      <c r="C58" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="D58" s="62"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="63">
+        <v>8</v>
+      </c>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="D59" s="62"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="63">
+        <v>9</v>
+      </c>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="D60" s="62"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="63"/>
+      <c r="B63" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="63"/>
+      <c r="B64" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="C64" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="D64" s="63" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="63">
+        <v>1</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C65" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="D65" s="64" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="63">
+        <v>2</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="63">
+        <v>3</v>
+      </c>
+      <c r="B67" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="C67" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="D67" s="62"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="63"/>
+      <c r="B70" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="63"/>
+      <c r="B71" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="C71" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71" s="63" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="63">
+        <v>1</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="63">
+        <v>2</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C73" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="63">
+        <v>3</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="C74" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="63">
+        <v>4</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C75" s="62"/>
+      <c r="D75" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="63">
+        <v>5</v>
+      </c>
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B50:D50"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6979,31 +8765,31 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="4" width="18.625" style="1"/>
-    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="18.625" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="18.6640625" style="1"/>
+    <col min="5" max="5" width="6.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="18.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:5" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -7015,7 +8801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -7029,7 +8815,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -7043,7 +8829,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -7057,7 +8843,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -7071,7 +8857,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -7085,7 +8871,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -7097,7 +8883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -7107,7 +8893,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -7117,7 +8903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -7127,7 +8913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -7137,15 +8923,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>1</v>
@@ -7157,7 +8943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -7171,7 +8957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -7185,7 +8971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>3</v>
       </c>
@@ -7199,7 +8985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -7213,7 +8999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>5</v>
       </c>
@@ -7227,7 +9013,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>6</v>
       </c>
@@ -7239,21 +9025,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>1</v>
@@ -7265,7 +9051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -7279,7 +9065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -7293,7 +9079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -7307,7 +9093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>4</v>
       </c>
@@ -7321,7 +9107,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>5</v>
       </c>
@@ -7335,7 +9121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>6</v>
       </c>
@@ -7347,7 +9133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>7</v>
       </c>
@@ -7359,7 +9145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>8</v>
       </c>
@@ -7380,642 +9166,4 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="2" customWidth="1"/>
-    <col min="7" max="10" width="18.625" style="36"/>
-    <col min="11" max="16384" width="18.625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F2" s="6"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-    </row>
-    <row r="3" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:10" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="6"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-    </row>
-    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-    </row>
-    <row r="17" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-    </row>
-    <row r="18" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="37"/>
-    </row>
-    <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="37"/>
-    </row>
-    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="37"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>6</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="37"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="6"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="37"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="6"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-    </row>
-    <row r="26" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-    </row>
-    <row r="27" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>2</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="37"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="37"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="37"/>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="37"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-    </row>
-    <row r="34" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-    </row>
-    <row r="35" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>2</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>3</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-    </row>
-    <row r="38" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>5</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>6</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B24:D24"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>